--- a/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - A.xlsx
+++ b/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Leaf\Documents\RR\ExternalDocuments\PianoDiProgetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Leaf\Documents\RR\ExternalDocuments\PianoDiProgetto\preventivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,13 +591,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
@@ -815,13 +815,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
@@ -1073,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="280921360"/>
-        <c:axId val="280920184"/>
+        <c:axId val="279241560"/>
+        <c:axId val="279239208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280921360"/>
+        <c:axId val="279241560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280920184"/>
+        <c:crossAx val="279239208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280920184"/>
+        <c:axId val="279239208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280921360"/>
+        <c:crossAx val="279241560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,13 +1644,13 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2123,13 +2123,13 @@
                   <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1040</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3025</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2524,13 +2524,13 @@
                         <c:v>33</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>52</c:v>
+                        <c:v>87</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>121</c:v>
+                        <c:v>86</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0</c:v>
@@ -4656,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -4759,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:G9" si="1">C2+C3+C4+C6+C5+C7+C8</f>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="1"/>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E9" s="17">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
@@ -4952,11 +4952,11 @@
       </c>
       <c r="B18" s="16">
         <f>C9</f>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C18" s="23">
         <f>B18*20</f>
-        <v>1040</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4978,11 +4978,11 @@
       </c>
       <c r="B20" s="16">
         <f>E9</f>
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C20" s="23">
         <f>B20*25</f>
-        <v>3025</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C23" s="24">
         <f>C17+C18+C19+C20+C21+C22</f>
-        <v>6165</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
